--- a/cleandata.xlsx
+++ b/cleandata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35760" yWindow="0" windowWidth="25860" windowHeight="20940" tabRatio="500"/>
+    <workbookView xWindow="27560" yWindow="0" windowWidth="35800" windowHeight="20940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Sailing</t>
   </si>
@@ -128,6 +128,15 @@
   <si>
     <t>Max Heart Rate (BPM)</t>
   </si>
+  <si>
+    <t>Max Differential (BPM)</t>
+  </si>
+  <si>
+    <t>Color w/ Highest Avg</t>
+  </si>
+  <si>
+    <t>Color w/ Lowest Avg</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -216,8 +225,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -339,34 +431,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +572,12 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +638,12 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1098"/>
+  <dimension ref="A1:BF1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1072" workbookViewId="0">
-      <selection activeCell="K1091" sqref="K1091:M1091"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -827,13 +984,14 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,8 +1076,35 @@
       <c r="AH1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+    </row>
+    <row r="2" spans="1:58" ht="45">
       <c r="B2">
         <v>65</v>
       </c>
@@ -983,8 +1168,71 @@
       <c r="AH2">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AL2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF2" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="45">
       <c r="B3">
         <v>64</v>
       </c>
@@ -1048,8 +1296,74 @@
       <c r="AH3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AL3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>145</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>58</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>67</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>61</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>81</v>
+      </c>
+      <c r="AV3" s="18">
+        <v>68.423913043478265</v>
+      </c>
+      <c r="AW3" s="18">
+        <v>59.052346570397113</v>
+      </c>
+      <c r="AX3" s="19">
+        <v>61.053019145802651</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>72</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>64</v>
+      </c>
+      <c r="BA3" s="11">
+        <v>81</v>
+      </c>
+      <c r="BB3">
+        <f>AY3-AS3</f>
+        <v>5</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ref="BC3:BD8" si="0">AZ3-AT3</f>
+        <v>3</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1116,8 +1430,74 @@
       <c r="AH4">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>13</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>65</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>69</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>61</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>61.404255319148938</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>61.357781753130588</v>
+      </c>
+      <c r="AX4" s="19">
+        <v>62.008241758241759</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>72</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>69</v>
+      </c>
+      <c r="BA4" s="13">
+        <v>74</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ref="BB4:BB8" si="1">AY4-AS4</f>
+        <v>7</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1184,8 +1564,74 @@
       <c r="AH5">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AL5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>101</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>68</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>54</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>54</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>58</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>67</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>59</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>60.364197530864196</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>59.114814814814814</v>
+      </c>
+      <c r="AX5" s="19">
+        <v>59.979629629629628</v>
+      </c>
+      <c r="AY5" s="10">
+        <v>68</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>67</v>
+      </c>
+      <c r="BA5" s="13">
+        <v>69</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1252,8 +1698,74 @@
       <c r="AH6">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AL6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>76</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>26</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>59</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>11</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>69</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>81</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>79.740952380952379</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>70.10588235294118</v>
+      </c>
+      <c r="AX6" s="19">
+        <v>78.319148936170208</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>91</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>83</v>
+      </c>
+      <c r="BA6" s="13">
+        <v>87</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="30">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1320,8 +1832,74 @@
       <c r="AH7">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AL7" s="12">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>148</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>94</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>40</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>13</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>62</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>77</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>74.793503480278417</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>65.992481203007515</v>
+      </c>
+      <c r="AX7" s="19">
+        <v>74.387096774193552</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>81</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>83</v>
+      </c>
+      <c r="BA7" s="13">
+        <v>83</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1388,8 +1966,74 @@
       <c r="AH8">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AL8" s="14">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>98</v>
+      </c>
+      <c r="AP8" s="15">
+        <v>37</v>
+      </c>
+      <c r="AQ8" s="15">
+        <v>18</v>
+      </c>
+      <c r="AR8" s="15">
+        <v>13</v>
+      </c>
+      <c r="AS8" s="15">
+        <v>94</v>
+      </c>
+      <c r="AT8" s="15">
+        <v>95</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>88</v>
+      </c>
+      <c r="AV8" s="20">
+        <v>97.269230769230774</v>
+      </c>
+      <c r="AW8" s="20">
+        <v>95.868421052631575</v>
+      </c>
+      <c r="AX8" s="21">
+        <v>94.080139372822302</v>
+      </c>
+      <c r="AY8" s="16">
+        <v>103</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>102</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>102</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1456,8 +2100,20 @@
       <c r="AH9">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="BB9">
+        <f>AVERAGE(BB3:BB8)</f>
+        <v>10</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" ref="BC9:BD9" si="2">AVERAGE(BC3:BC8)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1525,7 +2181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:58">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1593,7 +2249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:58">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1661,7 +2317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:58">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1729,7 +2385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:58">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1797,7 +2453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:58">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1865,7 +2521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:58">
       <c r="A16">
         <v>13</v>
       </c>
@@ -33174,7 +33830,7 @@
         <v>8</v>
       </c>
       <c r="B1082">
-        <f t="shared" ref="B1082:M1082" si="0">MAX(B2:B1081)</f>
+        <f t="shared" ref="B1082:M1082" si="3">MAX(B2:B1081)</f>
         <v>72</v>
       </c>
       <c r="C1082">
@@ -33182,15 +33838,15 @@
         <v>69</v>
       </c>
       <c r="D1082">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="G1082">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="H1082">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="I1082">
@@ -33198,11 +33854,11 @@
         <v>81</v>
       </c>
       <c r="L1082">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="M1082">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="N1082">
@@ -33210,51 +33866,51 @@
         <v>69</v>
       </c>
       <c r="Q1082">
-        <f t="shared" ref="Q1082:AH1082" si="1">MAX(Q2:Q1081)</f>
+        <f t="shared" ref="Q1082:AH1082" si="4">MAX(Q2:Q1081)</f>
         <v>91</v>
       </c>
       <c r="R1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="S1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="V1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="W1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="X1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="AA1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="AB1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="AC1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="AF1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="AG1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="AH1082">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
@@ -33267,83 +33923,83 @@
         <v>65</v>
       </c>
       <c r="C1083">
-        <f t="shared" ref="C1083:AH1083" si="2">C2</f>
+        <f t="shared" ref="C1083:AH1083" si="5">C2</f>
         <v>69</v>
       </c>
       <c r="D1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="G1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="H1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="I1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="L1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="M1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="N1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="Q1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="R1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="V1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="W1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="X1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="AA1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="AB1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="AC1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="AF1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="AG1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="AH1083">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
@@ -33360,15 +34016,15 @@
         <v>50</v>
       </c>
       <c r="D1084">
-        <f t="shared" ref="D1084:AH1084" si="3">MIN(D2:D1081)</f>
+        <f t="shared" ref="D1084:AH1084" si="6">MIN(D2:D1081)</f>
         <v>51</v>
       </c>
       <c r="G1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="H1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="I1084">
@@ -33376,63 +34032,63 @@
         <v>51</v>
       </c>
       <c r="L1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="M1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="N1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="Q1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="R1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="S1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="V1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="W1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="X1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="AA1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="AB1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="AC1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="AF1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="AG1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="AH1084">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
     </row>
@@ -33445,83 +34101,83 @@
         <v>61.404255319148938</v>
       </c>
       <c r="C1085">
-        <f t="shared" ref="C1085:AH1085" si="4">AVERAGE(C2:C1081)</f>
+        <f t="shared" ref="C1085:AH1085" si="7">AVERAGE(C2:C1081)</f>
         <v>61.357781753130588</v>
       </c>
       <c r="D1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>62.008241758241759</v>
       </c>
       <c r="G1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>68.423913043478265</v>
       </c>
       <c r="H1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59.052346570397113</v>
       </c>
       <c r="I1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>61.053019145802651</v>
       </c>
       <c r="L1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60.364197530864196</v>
       </c>
       <c r="M1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59.114814814814814</v>
       </c>
       <c r="N1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>59.979629629629628</v>
       </c>
       <c r="Q1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>79.740952380952379</v>
       </c>
       <c r="R1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>70.10588235294118</v>
       </c>
       <c r="S1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>78.319148936170208</v>
       </c>
       <c r="V1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>74.793503480278417</v>
       </c>
       <c r="W1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>65.992481203007515</v>
       </c>
       <c r="X1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>74.387096774193552</v>
       </c>
       <c r="AA1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>99.361111111111114</v>
       </c>
       <c r="AB1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>95.590604026845639</v>
       </c>
       <c r="AC1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>101.39501039501039</v>
       </c>
       <c r="AF1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>97.269230769230774</v>
       </c>
       <c r="AG1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>95.868421052631575</v>
       </c>
       <c r="AH1085">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>94.080139372822302</v>
       </c>
     </row>
@@ -33611,378 +34267,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1091" spans="1:16" ht="30" customHeight="1">
-      <c r="H1091" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1091" s="4"/>
-      <c r="J1091" s="4"/>
-      <c r="K1091" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1091" s="4"/>
-      <c r="M1091" s="4"/>
-      <c r="N1091" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1091" s="4"/>
-      <c r="P1091" s="4"/>
-    </row>
-    <row r="1092" spans="1:16" ht="30">
-      <c r="A1092" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1092" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1092" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1092" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1092" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1092" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1092" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1092" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1092" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1092" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1092" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1092" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1092" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1092" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1092" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1092" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:16" ht="30">
-      <c r="A1093" s="3">
-        <v>1</v>
-      </c>
-      <c r="B1093" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1093" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1093" s="3">
-        <v>145</v>
-      </c>
-      <c r="E1093" s="3">
-        <v>58</v>
-      </c>
-      <c r="F1093" s="3">
-        <v>57</v>
-      </c>
-      <c r="G1093" s="3">
-        <v>28</v>
-      </c>
-      <c r="H1093" s="3">
-        <v>67</v>
-      </c>
-      <c r="I1093" s="3">
-        <v>61</v>
-      </c>
-      <c r="J1093">
-        <v>81</v>
-      </c>
-      <c r="K1093" s="3">
-        <v>68.423913043478265</v>
-      </c>
-      <c r="L1093" s="3">
-        <v>59.052346570397113</v>
-      </c>
-      <c r="M1093" s="5">
-        <v>61.053019145802651</v>
-      </c>
-      <c r="N1093">
-        <v>72</v>
-      </c>
-      <c r="O1093">
-        <v>64</v>
-      </c>
-      <c r="P1093">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:16">
-      <c r="A1094" s="3">
-        <v>2</v>
-      </c>
-      <c r="B1094" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1094" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1094" s="3">
-        <v>83</v>
-      </c>
-      <c r="E1094" s="3">
-        <v>21</v>
-      </c>
-      <c r="F1094" s="3">
-        <v>19</v>
-      </c>
-      <c r="G1094" s="3">
-        <v>13</v>
-      </c>
-      <c r="H1094" s="3">
-        <v>65</v>
-      </c>
-      <c r="I1094" s="3">
-        <v>69</v>
-      </c>
-      <c r="J1094">
-        <v>61</v>
-      </c>
-      <c r="K1094" s="3">
-        <v>61.404255319148938</v>
-      </c>
-      <c r="L1094" s="3">
-        <v>61.357781753130588</v>
-      </c>
-      <c r="M1094">
-        <v>62.008241758241759</v>
-      </c>
-      <c r="N1094">
-        <v>72</v>
-      </c>
-      <c r="O1094">
-        <v>69</v>
-      </c>
-      <c r="P1094">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:16" ht="30">
-      <c r="A1095" s="3">
-        <v>3</v>
-      </c>
-      <c r="B1095" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1095" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1095" s="3">
-        <v>101</v>
-      </c>
-      <c r="E1095" s="3">
-        <v>68</v>
-      </c>
-      <c r="F1095" s="3">
-        <v>54</v>
-      </c>
-      <c r="G1095" s="3">
-        <v>54</v>
-      </c>
-      <c r="H1095" s="3">
-        <v>58</v>
-      </c>
-      <c r="I1095" s="3">
-        <v>67</v>
-      </c>
-      <c r="J1095">
-        <v>59</v>
-      </c>
-      <c r="K1095" s="3">
-        <v>60.364197530864196</v>
-      </c>
-      <c r="L1095" s="3">
-        <v>59.114814814814814</v>
-      </c>
-      <c r="M1095" s="5">
-        <v>59.979629629629628</v>
-      </c>
-      <c r="N1095">
-        <v>68</v>
-      </c>
-      <c r="O1095">
-        <v>67</v>
-      </c>
-      <c r="P1095">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:16">
-      <c r="A1096" s="3">
-        <v>5</v>
-      </c>
-      <c r="B1096" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1096" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1096" s="3">
-        <v>76</v>
-      </c>
-      <c r="E1096" s="3">
-        <v>26</v>
-      </c>
-      <c r="F1096" s="3">
-        <v>59</v>
-      </c>
-      <c r="G1096" s="3">
-        <v>11</v>
-      </c>
-      <c r="H1096" s="3">
-        <v>69</v>
-      </c>
-      <c r="I1096" s="3">
-        <v>81</v>
-      </c>
-      <c r="J1096">
-        <v>74</v>
-      </c>
-      <c r="K1096" s="3">
-        <v>79.740952380952379</v>
-      </c>
-      <c r="L1096" s="3">
-        <v>70.10588235294118</v>
-      </c>
-      <c r="M1096">
-        <v>78.319148936170208</v>
-      </c>
-      <c r="N1096">
-        <v>91</v>
-      </c>
-      <c r="O1096">
-        <v>83</v>
-      </c>
-      <c r="P1096">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:16">
-      <c r="A1097" s="3">
-        <v>7</v>
-      </c>
-      <c r="B1097" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1097" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1097" s="3">
-        <v>148</v>
-      </c>
-      <c r="E1097" s="3">
-        <v>94</v>
-      </c>
-      <c r="F1097" s="3">
-        <v>40</v>
-      </c>
-      <c r="G1097" s="3">
-        <v>13</v>
-      </c>
-      <c r="H1097" s="3">
-        <v>74</v>
-      </c>
-      <c r="I1097" s="3">
-        <v>62</v>
-      </c>
-      <c r="J1097">
-        <v>77</v>
-      </c>
-      <c r="K1097" s="3">
-        <v>74.793503480278417</v>
-      </c>
-      <c r="L1097" s="3">
-        <v>65.992481203007515</v>
-      </c>
-      <c r="M1097">
-        <v>74.387096774193552</v>
-      </c>
-      <c r="N1097">
-        <v>81</v>
-      </c>
-      <c r="O1097">
-        <v>83</v>
-      </c>
-      <c r="P1097">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:16" ht="30">
-      <c r="A1098" s="3">
-        <v>8</v>
-      </c>
-      <c r="B1098" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1098" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1098" s="3">
-        <v>98</v>
-      </c>
-      <c r="E1098" s="3">
-        <v>37</v>
-      </c>
-      <c r="F1098" s="3">
-        <v>18</v>
-      </c>
-      <c r="G1098" s="3">
-        <v>13</v>
-      </c>
-      <c r="H1098" s="3">
-        <v>94</v>
-      </c>
-      <c r="I1098" s="3">
-        <v>95</v>
-      </c>
-      <c r="J1098" s="5">
-        <v>88</v>
-      </c>
-      <c r="K1098" s="3">
-        <v>97.269230769230774</v>
-      </c>
-      <c r="L1098" s="3">
-        <v>95.868421052631575</v>
-      </c>
-      <c r="M1098" s="5">
-        <v>94.080139372822302</v>
-      </c>
-      <c r="N1098">
-        <v>103</v>
-      </c>
-      <c r="O1098">
-        <v>102</v>
-      </c>
-      <c r="P1098">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="1091" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H1091:J1091"/>
-    <mergeCell ref="K1091:M1091"/>
-    <mergeCell ref="N1091:P1091"/>
+  <mergeCells count="4">
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
